--- a/docs/Item 1/DPCostes.xlsx
+++ b/docs/Item 1/DPCostes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>PERSONAL</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>CONTINGENCIA (BAJAS, RETRASOS)</t>
+  </si>
+  <si>
+    <t>COSTE TOTAL PROYECTO</t>
+  </si>
+  <si>
+    <t>1106'37 €</t>
   </si>
   <si>
     <t>DOMINIO/UML</t>
@@ -105,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,18 +578,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5">
         <v>12</v>
       </c>
       <c r="E4" s="5">
         <f>C4*D4</f>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F4" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>23.972602739726025</v>
+        <v>31.963470319634702</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="11"/>
@@ -598,18 +604,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E9" si="0">C5*D5</f>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F5" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>23.972602739726025</v>
+        <v>31.963470319634702</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="11"/>
@@ -624,18 +630,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5">
         <v>12</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F6" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>23.972602739726025</v>
+        <v>31.963470319634702</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="11"/>
@@ -650,18 +656,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <v>12</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F7" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>23.972602739726025</v>
+        <v>31.963470319634702</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="11"/>
@@ -676,18 +682,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F8" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>23.972602739726025</v>
+        <v>31.963470319634702</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="11"/>
@@ -702,18 +708,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F9" s="9">
         <f>(100*C4/K12)*K13</f>
-        <v>23.972602739726025</v>
+        <v>31.963470319634702</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="11"/>
@@ -729,28 +735,28 @@
       </c>
       <c r="E10" s="10">
         <f>SUM(E4:E9)</f>
-        <v>864</v>
+        <v>1152</v>
       </c>
       <c r="F10" s="10">
         <f>SUM(F4:F9)</f>
-        <v>143.83561643835614</v>
+        <v>191.7808219178082</v>
       </c>
       <c r="G10">
         <f>(E10+F10)*0.1</f>
-        <v>100.78356164383563</v>
+        <v>134.37808219178083</v>
       </c>
       <c r="H10" s="2">
         <f>E10+F10+G10</f>
-        <v>1108.6191780821919</v>
+        <v>1478.158904109589</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <f>E10+F10</f>
-        <v>1007.8356164383562</v>
+        <v>1343.7808219178082</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -771,17 +777,17 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13">
         <f>C13*6</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -798,14 +804,14 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E18" si="1">C14*6</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -840,17 +846,17 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -877,14 +883,22 @@
       </c>
       <c r="C21">
         <f>SUM(C13:C18)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21">
         <f>SUM(E12:E18)</f>
-        <v>72</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Item 1/DPCostes.xlsx
+++ b/docs/Item 1/DPCostes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>PERSONAL</t>
   </si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>CONTINGENCIA (BAJAS, RETRASOS)</t>
-  </si>
-  <si>
-    <t>COSTE TOTAL PROYECTO</t>
-  </si>
-  <si>
-    <t>1106'37 €</t>
   </si>
   <si>
     <t>DOMINIO/UML</t>
@@ -111,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,18 +572,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5">
         <v>12</v>
       </c>
       <c r="E4" s="5">
         <f>C4*D4</f>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>31.963470319634702</v>
+        <v>23.972602739726025</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="11"/>
@@ -604,18 +598,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E9" si="0">C5*D5</f>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F5" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>31.963470319634702</v>
+        <v>23.972602739726025</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="11"/>
@@ -630,18 +624,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>12</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F6" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>31.963470319634702</v>
+        <v>23.972602739726025</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="11"/>
@@ -656,18 +650,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>12</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>31.963470319634702</v>
+        <v>23.972602739726025</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="11"/>
@@ -682,18 +676,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F8" s="5">
         <f>(100*C4/K12)*K13</f>
-        <v>31.963470319634702</v>
+        <v>23.972602739726025</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="11"/>
@@ -708,18 +702,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F9" s="9">
         <f>(100*C4/K12)*K13</f>
-        <v>31.963470319634702</v>
+        <v>23.972602739726025</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="11"/>
@@ -735,28 +729,28 @@
       </c>
       <c r="E10" s="10">
         <f>SUM(E4:E9)</f>
-        <v>1152</v>
+        <v>864</v>
       </c>
       <c r="F10" s="10">
         <f>SUM(F4:F9)</f>
-        <v>191.7808219178082</v>
+        <v>143.83561643835614</v>
       </c>
       <c r="G10">
         <f>(E10+F10)*0.1</f>
-        <v>134.37808219178083</v>
+        <v>100.78356164383563</v>
       </c>
       <c r="H10" s="2">
         <f>E10+F10+G10</f>
-        <v>1478.158904109589</v>
+        <v>1108.6191780821919</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <f>E10+F10</f>
-        <v>1343.7808219178082</v>
+        <v>1007.8356164383562</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -777,17 +771,17 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13">
         <f>C13*6</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -804,14 +798,14 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E18" si="1">C14*6</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -846,17 +840,17 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -883,22 +877,14 @@
       </c>
       <c r="C21">
         <f>SUM(C13:C18)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21">
         <f>SUM(E12:E18)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
